--- a/docs/Logboek-mc-dev-ctf.xlsx
+++ b/docs/Logboek-mc-dev-ctf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6571B7-86F3-497F-B53D-AE099A0C6AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8116D5A4-3D7C-4382-9704-5234B6FDF051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8D136E9-6B31-42AB-977B-0D488AABD1F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Logboek</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Flag items veranderd naar de nieuwe item interface</t>
+  </si>
+  <si>
+    <t>Progressie gemaakt aan kits</t>
+  </si>
+  <si>
+    <t>Kleine bug-fixes</t>
   </si>
 </sst>
 </file>
@@ -669,7 +675,7 @@
   <dimension ref="B2:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,8 +778,12 @@
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="7">
+        <v>45970</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="F7" s="7">
         <v>45914</v>
       </c>
@@ -934,8 +944,12 @@
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="7">
+        <v>45970</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>

--- a/docs/Logboek-mc-dev-ctf.xlsx
+++ b/docs/Logboek-mc-dev-ctf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8116D5A4-3D7C-4382-9704-5234B6FDF051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD08415-8295-4B97-B7F7-2F93F7F9A95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8D136E9-6B31-42AB-977B-0D488AABD1F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Logboek</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Kleine bug-fixes</t>
+  </si>
+  <si>
+    <t>Vlag drop systeem gemaakt als je word gekilled</t>
+  </si>
+  <si>
+    <t>Kit bugs gefixt en session messages toegevoegd</t>
   </si>
 </sst>
 </file>
@@ -675,7 +681,7 @@
   <dimension ref="B2:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,16 +962,24 @@
       <c r="C20" s="4"/>
       <c r="D20" s="6"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="9">
+        <v>45972</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3"/>
+      <c r="F21" s="7">
+        <v>45972</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
